--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Hostel_Student Admission & Essentials.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Hostel_Student Admission & Essentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="27945" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TC1_Student_Hostel_Admission" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="194">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -57,7 +57,7 @@
 5.Fee Category (If hostel fee is applicable)</t>
   </si>
   <si>
-    <t>url: erp.worldskillcenter.org</t>
+    <t>url: wscdemo.eduleadonline.com</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -76,7 +76,7 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t xml:space="preserve">Actual Results </t>
+    <t>Actual Results ( Hostel Administrator )</t>
   </si>
   <si>
     <t>Pass/Fail/Not Executed/Suspended</t>
@@ -94,28 +94,46 @@
     <t xml:space="preserve"> Student Hostel Admission page should be open</t>
   </si>
   <si>
+    <t xml:space="preserve"> Student Hostel Admission page is opening</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>View the  Student Hostel Admission  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on  Student Hostel Admission page</t>
   </si>
   <si>
+    <t xml:space="preserve"> saved data is showing on  Student Hostel Admission page</t>
+  </si>
+  <si>
     <t>Click Add Student Hostel Admission button</t>
   </si>
   <si>
     <t>Add  Student Hostel Admission button should be clickable and new Student Hostel Admission addition page should be open</t>
   </si>
   <si>
+    <t>Add  Student Hostel Admission button is clickable and new Student Hostel Admission addition page is opening</t>
+  </si>
+  <si>
     <t>Without fill any mandatory fields, click on save button</t>
   </si>
   <si>
     <t>Page should not proceed. Alert message should be shown for unfilled mandatory fields. Mandatory fields should be mentioned as * symbol.</t>
   </si>
   <si>
+    <t>Page is not proceed. Alert message is showing for unfilled mandatory fields. Mandatory fields is mentioned as * symbol.</t>
+  </si>
+  <si>
     <t>fill only mandatory fields, click on save button</t>
   </si>
   <si>
     <t>Page should be saved successfully</t>
+  </si>
+  <si>
+    <t>Page is saved successfully</t>
   </si>
   <si>
     <t>click on student dropdown in student info section, select the student</t>
@@ -125,10 +143,17 @@
 it should be a link field, it should linked with employee screen</t>
   </si>
   <si>
+    <t>student dropdown is clickable. user is able to put student
+it is a link field, it should linked with employee screen</t>
+  </si>
+  <si>
     <t>verify the student info section after put the student</t>
   </si>
   <si>
     <t>That particular student details like name, email, education details &amp; roll no. should be auto fetched .</t>
+  </si>
+  <si>
+    <t>That particular student details like name, email, education details &amp; roll no. is auto fetched .</t>
   </si>
   <si>
     <t>click on hostel dropdown in hostel info section, select the hostel</t>
@@ -138,10 +163,17 @@
 it should be a link field, it should linked with hostel screen</t>
   </si>
   <si>
+    <t>hostel dropdown is clickable. user is able to put hostel
+it is a link field, it is linked with hostel screen</t>
+  </si>
+  <si>
     <t>verify the hostel info section after put the hostel</t>
   </si>
   <si>
     <t>That particular hostel details like phone no. , hostel type should be auto fetched .</t>
+  </si>
+  <si>
+    <t>That particular hostel details like phone no. , hostel type is auto fetched .</t>
   </si>
   <si>
     <t>click on room type dropdown  , select the room type</t>
@@ -151,22 +183,35 @@
 it should be a link field, it should linked with room type screen</t>
   </si>
   <si>
+    <t>room type dropdown is clickable. user is able to put room type
+it is a link field, it should linked with room type screen</t>
+  </si>
+  <si>
     <t>verify the room type info section after put the room type</t>
   </si>
   <si>
     <t>That particular room type details like description, capacity, feature should be auto fetched .</t>
   </si>
   <si>
+    <t>That particular room type details like description, capacity, feature is auto fetched .</t>
+  </si>
+  <si>
     <t>click on hostel fee structure, select yes / no</t>
   </si>
   <si>
     <t>user should able to put the hostel fee structure as yes / no</t>
   </si>
   <si>
+    <t>user is able to put the hostel fee structure as yes / no</t>
+  </si>
+  <si>
     <t>Verify the Hostel Fee Structure section after put Yes</t>
   </si>
   <si>
     <t>The respective fields for fee structure like Hostel Fee Structure, Due Date, Hostel Fee Components should be open</t>
+  </si>
+  <si>
+    <t>The respective fields for fee structure like Hostel Fee Structure, Due Date, Hostel Fee Components is opening</t>
   </si>
   <si>
     <t>click on hostel fee structure dropdown , select the hostel fee structure</t>
@@ -176,16 +221,26 @@
 it should be a link field, it should linked with hostel fee structure screen</t>
   </si>
   <si>
+    <t>hostel fee structure dropdown is clickable. user is able to put hostel fee structure
+it is a link field, it should linked with hostel fee structure screen</t>
+  </si>
+  <si>
     <t>click on due date, select the date</t>
   </si>
   <si>
     <t>due date should be clickable. date picker box should be open. user should able to select the date</t>
   </si>
   <si>
+    <t>due date is clickable. date picker box is opening. user is able to select the date</t>
+  </si>
+  <si>
     <t>click on add row of hostel fee component section</t>
   </si>
   <si>
     <t>new row for hostel fee component should be added</t>
+  </si>
+  <si>
+    <t>new row for hostel fee component is added</t>
   </si>
   <si>
     <t>click on fee category dropdown , select the fee category</t>
@@ -195,22 +250,35 @@
 it should be a link field, it should linked with fee category screen</t>
   </si>
   <si>
+    <t>fee category dropdown is clickable. user is able to put fee category
+it is a link field, it should linked with fee category screen</t>
+  </si>
+  <si>
     <t>click on description text field, fill it</t>
   </si>
   <si>
     <t>description text field should be filled by user</t>
   </si>
   <si>
+    <t>description text field is filled by user</t>
+  </si>
+  <si>
     <t>click on amount text field, fill it</t>
   </si>
   <si>
     <t>Amount text field should be filled by user</t>
   </si>
   <si>
+    <t>Amount text field is filled by user</t>
+  </si>
+  <si>
     <t>After fill the mandatory &amp; required fields, click on save button</t>
   </si>
   <si>
     <t>Page should be saved successfully. New Student Hostel Admission should be created</t>
+  </si>
+  <si>
+    <t>Page is saved successfully. New Student Hostel Admission is created</t>
   </si>
   <si>
     <t>Roles And Permission</t>
@@ -337,6 +405,26 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">The user also have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create, Delete, submit, cancel &amp; amend</t>
+    </r>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -369,6 +457,23 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">The user also  have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read,Write,Create, Delete, submit, cancel &amp; amend</t>
+    </r>
+  </si>
+  <si>
     <t>TC2_Student_Medical_History</t>
   </si>
   <si>
@@ -390,16 +495,25 @@
     <t xml:space="preserve"> Student Medical History page should be open</t>
   </si>
   <si>
+    <t xml:space="preserve"> Student Medical History page is opening</t>
+  </si>
+  <si>
     <t>View the Student Medical History  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on  Student Medical History page</t>
   </si>
   <si>
+    <t xml:space="preserve"> saved data is showing on  Student Medical History page</t>
+  </si>
+  <si>
     <t>Click Add Student Medical History button</t>
   </si>
   <si>
     <t>Add  Student Medical History button should be clickable and new Student Medical History addition page should be open</t>
+  </si>
+  <si>
+    <t>Add  Student Medical History button is clickable and new Student Medical History addition page is opening</t>
   </si>
   <si>
     <t>click on Allotment Number dropdown, select the allotment</t>
@@ -409,16 +523,26 @@
 it should be a link field. it should be linked with room allotment screen</t>
   </si>
   <si>
+    <t>Allotment number dropdown is clickable. user is able to fill allotment number field.
+it is a link field. it is linked with room allotment screen</t>
+  </si>
+  <si>
     <t>Verify the page after put allotment number</t>
   </si>
   <si>
     <t>The student who is assigned as that allotment number, that student details like Student, Student name, Roll No, Hostel, Room Number, Room Type should be auto fetched</t>
   </si>
   <si>
+    <t>The student who is assigned as that allotment number, that student details like Student, Student name, Roll No, Hostel, Room Number, Room Type is auto fetched</t>
+  </si>
+  <si>
     <t>click on Registration Number textfield. put the Registration Number</t>
   </si>
   <si>
     <t xml:space="preserve">user should able to fill Registration Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to fill Registration Number </t>
   </si>
   <si>
     <t>view the Allergies section, click any Allergies checkboxs</t>
@@ -428,6 +552,10 @@
 user should able to click one or more Allergies checkboxs</t>
   </si>
   <si>
+    <t>Allergies section is showing different Allergies.
+user is able to click one or more Allergies checkboxs</t>
+  </si>
+  <si>
     <t>view the Past Medical History section, click any Past Medical History checkboxs</t>
   </si>
   <si>
@@ -435,10 +563,17 @@
 user should able to click one or more Past Medical History checkboxs</t>
   </si>
   <si>
+    <t>Past Medical History section is showing different disease
+user is able to click one or more Past Medical History checkboxs</t>
+  </si>
+  <si>
     <t>Go to the text area 'Have you ever had any serious illness not listed above? If yes please mention below' , enter data</t>
   </si>
   <si>
     <t>User should able to enter the data briefly</t>
+  </si>
+  <si>
+    <t>User is able to enter the data briefly</t>
   </si>
   <si>
     <t>Go to the Medical History Document section, attach the document</t>
@@ -449,6 +584,11 @@
 user should able to attach the document</t>
   </si>
   <si>
+    <t>Attachment is there
+attach button is clickable
+user is able to attach the document</t>
+  </si>
+  <si>
     <t>Go to the description text area, enter data</t>
   </si>
   <si>
@@ -460,7 +600,15 @@
 user should able to select the data</t>
   </si>
   <si>
+    <t>Vaccinated? dropdown is clickable. 
+Types of Vaccinated is showing
+user is able to select the data</t>
+  </si>
+  <si>
     <t>Page should be saved successfully. New Hostel Material should be created</t>
+  </si>
+  <si>
+    <t>Page is saved successfully. New Hostel Material is created</t>
   </si>
   <si>
     <r>
@@ -487,6 +635,23 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">The user have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Read,Write,Create &amp; Delete </t>
+    </r>
+  </si>
+  <si>
     <t>TC3_Student_Leave_Process</t>
   </si>
   <si>
@@ -494,6 +659,9 @@
   </si>
   <si>
     <t>New Student Leave Process, Leave Approval Process, Parent Application</t>
+  </si>
+  <si>
+    <t>Actual Results (Student)</t>
   </si>
   <si>
     <t>Home &gt; Hostel &gt; Student Admission &amp; Essentials &gt; Student Leave Process</t>
@@ -544,6 +712,23 @@
 after select the document, that should be attached</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">The user  have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Read,Write,Create &amp; Delete </t>
+    </r>
+  </si>
+  <si>
     <t>TC4_Material_Distribution</t>
   </si>
   <si>
@@ -557,6 +742,9 @@
     <t>New Material Distribution</t>
   </si>
   <si>
+    <t>Actual Results ( Hostel Warden )</t>
+  </si>
+  <si>
     <t>Home &gt; Hostel &gt; Student Admission &amp; Essentials &gt; Material Distribution</t>
   </si>
   <si>
@@ -566,16 +754,25 @@
     <t xml:space="preserve"> Material Distribution page should be open</t>
   </si>
   <si>
+    <t xml:space="preserve"> Material Distribution page is opening</t>
+  </si>
+  <si>
     <t>View the Material Distribution  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on  Material Distribution page</t>
   </si>
   <si>
+    <t xml:space="preserve"> saved data is showing on  Material Distribution page</t>
+  </si>
+  <si>
     <t>Click Add Material Distribution button</t>
   </si>
   <si>
     <t>Add  SMaterial Distribution button should be clickable and new Material Distribution  addition page should be open</t>
+  </si>
+  <si>
+    <t>Add  Material Distribution button is clickable and new Material Distribution  addition page is opening</t>
   </si>
   <si>
     <t>Click on add row button of material allotment section</t>
@@ -585,18 +782,28 @@
 new row should be added in material allotment table</t>
   </si>
   <si>
+    <t>add row button is clickable.
+new row is added in material allotment table</t>
+  </si>
+  <si>
     <t>Click on material text field, fill it</t>
   </si>
   <si>
     <t>user should able to fill material field like bed, matress, table, chair etc in material text field</t>
   </si>
   <si>
+    <t>user is able to fill material field like bed, matress, table, chair etc in material text field</t>
+  </si>
+  <si>
     <t>click on Mandatory materials checkbox, which material is mandatory</t>
   </si>
   <si>
     <t>Checkbox should be clickable</t>
   </si>
   <si>
+    <t>Checkbox is clickable</t>
+  </si>
+  <si>
     <t>click on Material Applicability Check checkbox</t>
   </si>
   <si>
@@ -606,10 +813,19 @@
     <t>user should able to fill data in notes text area</t>
   </si>
   <si>
+    <t>user is able to fill data in notes text area</t>
+  </si>
+  <si>
     <t>TC5_Material_Distribution_Master</t>
   </si>
   <si>
+    <t>url: erp.worldskillcenter.org</t>
+  </si>
+  <si>
     <t>New Material Distribution Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Results </t>
   </si>
   <si>
     <t>Home &gt; Hostel &gt; Student Admission &amp; Essentials &gt; Material Distribution Master</t>
@@ -636,7 +852,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1031,7 +1247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1049,6 +1265,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1178,7 +1420,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1190,34 +1432,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1302,7 +1544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1318,50 +1560,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1684,8 +1953,8 @@
   <sheetPr/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1693,7 +1962,7 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
@@ -1712,9 +1981,9 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -1729,31 +1998,31 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
       <c r="A5" s="3">
@@ -1762,56 +2031,56 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1820,396 +2089,488 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>6</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>7</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <v>8</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="10">
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A19" s="8">
         <v>9</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <v>10</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="10">
+      <c r="A21" s="8">
         <v>11</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:7">
-      <c r="A22" s="10">
+      <c r="A22" s="8">
         <v>12</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>13</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A24" s="10">
+      <c r="A24" s="8">
         <v>14</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="10">
+      <c r="A25" s="8">
         <v>15</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:7">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>16</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A27" s="10">
+      <c r="B26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A27" s="8">
         <v>17</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:7">
-      <c r="A28" s="10">
+      <c r="A28" s="8">
         <v>18</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="B28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:7">
-      <c r="A29" s="10">
+      <c r="A29" s="8">
         <v>19</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:7">
-      <c r="A30" s="10">
+      <c r="B29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A30" s="8">
         <v>20</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:7">
-      <c r="A31" s="10"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:7">
-      <c r="A32" s="10"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="B30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" s="28" customFormat="1" spans="1:7">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" s="28" customFormat="1" spans="1:7">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:7">
-      <c r="A33" s="10"/>
-      <c r="B33" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A34" s="10"/>
-      <c r="B34" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A35" s="10"/>
-      <c r="B35" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A36" s="10"/>
-      <c r="B36" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:1">
-      <c r="A37" s="18"/>
+      <c r="A37" s="16"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:1">
-      <c r="A38" s="18"/>
+      <c r="A38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2227,8 +2588,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2236,7 +2597,7 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
@@ -2247,17 +2608,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -2272,89 +2633,89 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2363,312 +2724,384 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="8">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A16" s="8">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A17" s="8">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A18" s="8">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A19" s="8">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A20" s="8">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A21" s="8">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A22" s="8">
+        <v>12</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="8">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A24" s="8">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A25" s="8">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="10">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="10">
-        <v>5</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="10">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="10">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="C25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:7">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:7">
+      <c r="A27" s="8"/>
+      <c r="B27" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="10">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="E27" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A28" s="8"/>
+      <c r="B28" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="10">
-        <v>9</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="C28" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A29" s="8"/>
+      <c r="B29" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="10">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="C29" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="10">
-        <v>11</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="D29" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A30" s="8"/>
+      <c r="B30" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A22" s="10">
-        <v>12</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
-      <c r="A23" s="10">
-        <v>13</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A24" s="10">
-        <v>14</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:7">
-      <c r="A25" s="10">
-        <v>15</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:7">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:7">
-      <c r="A27" s="10"/>
-      <c r="B27" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A28" s="10"/>
-      <c r="B28" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A29" s="10"/>
-      <c r="B29" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A30" s="10"/>
-      <c r="B30" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="C30" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="16"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:1">
-      <c r="A32" s="18"/>
+      <c r="A32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2687,7 +3120,1088 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="8">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A16" s="8">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A17" s="8">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A18" s="8">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A19" s="8">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="8">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A21" s="8">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A22" s="8">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:7">
+      <c r="A24" s="8"/>
+      <c r="B24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A25" s="8"/>
+      <c r="B25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A26" s="8"/>
+      <c r="B26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A27" s="8"/>
+      <c r="B27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:1">
+      <c r="A28" s="16"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:1">
+      <c r="A29" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.1428571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:9">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:9">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:9">
+      <c r="A15" s="8">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A16" s="8">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:9">
+      <c r="A17" s="8">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A18" s="8">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A19" s="8">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A20" s="8">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:9">
+      <c r="A21" s="8">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:9">
+      <c r="A22" s="19">
+        <v>12</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" s="17" customFormat="1" ht="30" spans="1:9">
+      <c r="A23" s="8">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" s="18" customFormat="1" spans="1:9">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:9">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A26" s="8"/>
+      <c r="B26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A27" s="8"/>
+      <c r="B27" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:9">
+      <c r="A28" s="8"/>
+      <c r="B28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:1">
+      <c r="A29" s="16"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:1">
+      <c r="A30" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B25:C25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2706,17 +4220,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -2731,90 +4243,88 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
+      <c r="D9" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -2822,1076 +4332,237 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>6</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>7</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A18" s="8">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A19" s="8">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="8">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A18" s="10">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A19" s="10">
-        <v>9</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="10">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="E22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A23" s="8"/>
+      <c r="B23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A24" s="8"/>
+      <c r="B24" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A25" s="8"/>
+      <c r="B25" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A21" s="10">
-        <v>11</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
-      <c r="A22" s="10">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
-      <c r="A24" s="10"/>
-      <c r="B24" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="10"/>
-      <c r="B25" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="17"/>
+      <c r="C25" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="15"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A26" s="10"/>
-      <c r="B26" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A27" s="10"/>
-      <c r="B27" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:1">
-      <c r="A28" s="18"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:1">
-      <c r="A29" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B24:C24"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.2857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A11" s="10">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="10">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="10">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="10">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="10">
-        <v>5</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="10">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="10">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="10">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="10">
-        <v>9</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="10">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:7">
-      <c r="A21" s="10">
-        <v>11</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
-      <c r="A22" s="10">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
-      <c r="A23" s="10">
-        <v>13</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:7">
-      <c r="A25" s="10"/>
-      <c r="B25" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A26" s="10"/>
-      <c r="B26" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A27" s="10"/>
-      <c r="B27" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A28" s="10"/>
-      <c r="B28" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:1">
-      <c r="A29" s="18"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:1">
-      <c r="A30" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B25:C25"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.2857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A11" s="10">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="10">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="10">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="10">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="10">
-        <v>5</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="10">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="10">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="10">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="10">
-        <v>9</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="10">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:7">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
-      <c r="A22" s="10"/>
-      <c r="B22" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A24" s="10"/>
-      <c r="B24" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="10"/>
-      <c r="B25" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="18"/>
+      <c r="A26" s="16"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:1">
-      <c r="A27" s="18"/>
+      <c r="A27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Hostel_Student Admission & Essentials.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Hostel_Student Admission & Essentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TC1_Student_Hostel_Admission" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="195">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>BUG ID</t>
   </si>
   <si>
     <r>
@@ -405,6 +408,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user also have all the following accesses:
 </t>
     </r>
@@ -458,6 +468,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user also  have all the following accesses:
 </t>
     </r>
@@ -636,6 +653,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user have all the following accesses:
 </t>
     </r>
@@ -713,6 +737,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user  have all the following accesses:
 </t>
     </r>
@@ -1544,7 +1575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1596,9 +1627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1611,9 +1639,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1626,11 +1651,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1953,8 +1978,8 @@
   <sheetPr/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2482,26 +2507,14 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" s="28" customFormat="1" spans="1:7">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" s="28" customFormat="1" spans="1:7">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
+    <row r="31" s="17" customFormat="1" spans="1:1">
+      <c r="A31" s="20"/>
+    </row>
+    <row r="32" s="17" customFormat="1" spans="1:1">
+      <c r="A32" s="20"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:7">
-      <c r="A33" s="21"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="11" t="s">
         <v>82</v>
       </c>
@@ -2512,59 +2525,65 @@
       <c r="E33" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A34" s="21"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A35" s="21"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D35" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="8">
+        <v>185</v>
+      </c>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A36" s="20"/>
+      <c r="B36" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A36" s="21"/>
-      <c r="B36" s="14" t="s">
+      <c r="D36" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="8">
+        <v>186</v>
+      </c>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:1">
       <c r="A37" s="16"/>
@@ -2588,8 +2607,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2608,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -2664,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -2688,7 +2707,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2729,7 +2748,7 @@
     <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2742,13 +2761,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>24</v>
@@ -2761,13 +2780,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
@@ -2780,13 +2799,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>24</v>
@@ -2837,13 +2856,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>24</v>
@@ -2856,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>24</v>
@@ -2875,13 +2894,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>24</v>
@@ -2894,13 +2913,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>118</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>119</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>24</v>
@@ -2913,13 +2932,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>121</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>24</v>
@@ -2932,13 +2951,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -2951,13 +2970,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>24</v>
@@ -2970,13 +2989,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>24</v>
@@ -2989,13 +3008,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>24</v>
@@ -3011,10 +3030,10 @@
         <v>79</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>24</v>
@@ -3043,19 +3062,21 @@
       <c r="E27" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A28" s="8"/>
       <c r="B28" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>24</v>
@@ -3066,35 +3087,39 @@
     <row r="29" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A29" s="8"/>
       <c r="B29" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="F29" s="8">
+        <v>187</v>
+      </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A30" s="8"/>
       <c r="B30" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="8">
+        <v>188</v>
+      </c>
       <c r="G30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:1">
@@ -3119,8 +3144,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3139,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3195,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -3219,7 +3244,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3247,7 +3272,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -3260,7 +3285,7 @@
     <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3273,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>24</v>
@@ -3292,13 +3317,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
@@ -3311,13 +3336,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>24</v>
@@ -3368,13 +3393,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>24</v>
@@ -3387,13 +3412,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>24</v>
@@ -3406,13 +3431,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>24</v>
@@ -3425,13 +3450,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>24</v>
@@ -3444,13 +3469,13 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>24</v>
@@ -3463,13 +3488,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
@@ -3485,10 +3510,10 @@
         <v>79</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>24</v>
@@ -3517,22 +3542,24 @@
       <c r="E24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A25" s="8"/>
       <c r="B25" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3540,35 +3567,39 @@
     <row r="26" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="8">
+        <v>198</v>
+      </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A27" s="8"/>
       <c r="B27" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="8">
+        <v>199</v>
+      </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:1">
@@ -3593,8 +3624,8 @@
   <sheetPr/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3615,13 +3646,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -3679,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -3707,7 +3738,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3728,7 +3759,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="45" spans="1:9">
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -3745,7 +3776,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>18</v>
@@ -3758,7 +3789,7 @@
     <row r="10" s="1" customFormat="1" ht="30" spans="1:9">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3773,19 +3804,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>24</v>
@@ -3798,19 +3829,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>24</v>
@@ -3823,19 +3854,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>24</v>
@@ -3898,19 +3929,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>24</v>
@@ -3923,19 +3954,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>24</v>
@@ -3948,19 +3979,19 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>24</v>
@@ -3973,19 +4004,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>24</v>
@@ -3998,19 +4029,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>24</v>
@@ -4023,19 +4054,19 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="E21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>24</v>
@@ -4044,31 +4075,31 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:9">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>12</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>182</v>
       </c>
+      <c r="D22" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>182</v>
+      <c r="F22" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" s="17" customFormat="1" ht="30" spans="1:9">
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="30" spans="1:7">
       <c r="A23" s="8">
         <v>13</v>
       </c>
@@ -4076,107 +4107,101 @@
         <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" s="18" customFormat="1" spans="1:9">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+    </row>
+    <row r="24" s="17" customFormat="1" spans="1:1">
+      <c r="A24" s="20"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:9">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="F25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" spans="1:9">
       <c r="A26" s="8"/>
       <c r="B26" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="30" spans="1:9">
       <c r="A27" s="8"/>
       <c r="B27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+        <v>91</v>
+      </c>
+      <c r="F27" s="25">
+        <v>209</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:9">
       <c r="A28" s="8"/>
       <c r="B28" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:1">
       <c r="A29" s="16"/>
@@ -4220,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -4276,7 +4301,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -4296,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4324,7 +4349,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -4337,7 +4362,7 @@
     <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -4350,10 +4375,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4365,10 +4390,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4380,10 +4405,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -4425,10 +4450,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4440,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -4455,10 +4480,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4470,10 +4495,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -4488,7 +4513,7 @@
         <v>79</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -4522,10 +4547,10 @@
     <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A23" s="8"/>
       <c r="B23" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="3"/>
@@ -4535,10 +4560,10 @@
     <row r="24" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A24" s="8"/>
       <c r="B24" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="3"/>
@@ -4548,10 +4573,10 @@
     <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A25" s="8"/>
       <c r="B25" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="3"/>

--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Hostel_Student Admission & Essentials.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Hostel_Student Admission & Essentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TC1_Student_Hostel_Admission" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="145">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -57,7 +57,10 @@
 5.Fee Category (If hostel fee is applicable)</t>
   </si>
   <si>
-    <t>url: wscdemo.eduleadonline.com</t>
+    <t>url: wscdemo.eduleadonline.com
+Hostel Admin: hostel.admin@gmail.com, PW: erp@123
+Warden: hostel.warden@gmail.com,  PW: erp@123
+Student: student@gmail.com, PW: erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -76,7 +79,7 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Actual Results ( Hostel Administrator )</t>
+    <t xml:space="preserve">Actual Results </t>
   </si>
   <si>
     <t>Pass/Fail/Not Executed/Suspended</t>
@@ -94,46 +97,28 @@
     <t xml:space="preserve"> Student Hostel Admission page should be open</t>
   </si>
   <si>
-    <t xml:space="preserve"> Student Hostel Admission page is opening</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>View the  Student Hostel Admission  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on  Student Hostel Admission page</t>
   </si>
   <si>
-    <t xml:space="preserve"> saved data is showing on  Student Hostel Admission page</t>
-  </si>
-  <si>
     <t>Click Add Student Hostel Admission button</t>
   </si>
   <si>
     <t>Add  Student Hostel Admission button should be clickable and new Student Hostel Admission addition page should be open</t>
   </si>
   <si>
-    <t>Add  Student Hostel Admission button is clickable and new Student Hostel Admission addition page is opening</t>
-  </si>
-  <si>
     <t>Without fill any mandatory fields, click on save button</t>
   </si>
   <si>
     <t>Page should not proceed. Alert message should be shown for unfilled mandatory fields. Mandatory fields should be mentioned as * symbol.</t>
   </si>
   <si>
-    <t>Page is not proceed. Alert message is showing for unfilled mandatory fields. Mandatory fields is mentioned as * symbol.</t>
-  </si>
-  <si>
     <t>fill only mandatory fields, click on save button</t>
   </si>
   <si>
     <t>Page should be saved successfully</t>
-  </si>
-  <si>
-    <t>Page is saved successfully</t>
   </si>
   <si>
     <t>click on student dropdown in student info section, select the student</t>
@@ -143,17 +128,10 @@
 it should be a link field, it should linked with employee screen</t>
   </si>
   <si>
-    <t>student dropdown is clickable. user is able to put student
-it is a link field, it should linked with employee screen</t>
-  </si>
-  <si>
     <t>verify the student info section after put the student</t>
   </si>
   <si>
     <t>That particular student details like name, email, education details &amp; roll no. should be auto fetched .</t>
-  </si>
-  <si>
-    <t>That particular student details like name, email, education details &amp; roll no. is auto fetched .</t>
   </si>
   <si>
     <t>click on hostel dropdown in hostel info section, select the hostel</t>
@@ -163,17 +141,10 @@
 it should be a link field, it should linked with hostel screen</t>
   </si>
   <si>
-    <t>hostel dropdown is clickable. user is able to put hostel
-it is a link field, it is linked with hostel screen</t>
-  </si>
-  <si>
     <t>verify the hostel info section after put the hostel</t>
   </si>
   <si>
     <t>That particular hostel details like phone no. , hostel type should be auto fetched .</t>
-  </si>
-  <si>
-    <t>That particular hostel details like phone no. , hostel type is auto fetched .</t>
   </si>
   <si>
     <t>click on room type dropdown  , select the room type</t>
@@ -183,35 +154,22 @@
 it should be a link field, it should linked with room type screen</t>
   </si>
   <si>
-    <t>room type dropdown is clickable. user is able to put room type
-it is a link field, it should linked with room type screen</t>
-  </si>
-  <si>
     <t>verify the room type info section after put the room type</t>
   </si>
   <si>
     <t>That particular room type details like description, capacity, feature should be auto fetched .</t>
   </si>
   <si>
-    <t>That particular room type details like description, capacity, feature is auto fetched .</t>
-  </si>
-  <si>
     <t>click on hostel fee structure, select yes / no</t>
   </si>
   <si>
     <t>user should able to put the hostel fee structure as yes / no</t>
   </si>
   <si>
-    <t>user is able to put the hostel fee structure as yes / no</t>
-  </si>
-  <si>
     <t>Verify the Hostel Fee Structure section after put Yes</t>
   </si>
   <si>
     <t>The respective fields for fee structure like Hostel Fee Structure, Due Date, Hostel Fee Components should be open</t>
-  </si>
-  <si>
-    <t>The respective fields for fee structure like Hostel Fee Structure, Due Date, Hostel Fee Components is opening</t>
   </si>
   <si>
     <t>click on hostel fee structure dropdown , select the hostel fee structure</t>
@@ -221,26 +179,16 @@
 it should be a link field, it should linked with hostel fee structure screen</t>
   </si>
   <si>
-    <t>hostel fee structure dropdown is clickable. user is able to put hostel fee structure
-it is a link field, it should linked with hostel fee structure screen</t>
-  </si>
-  <si>
     <t>click on due date, select the date</t>
   </si>
   <si>
     <t>due date should be clickable. date picker box should be open. user should able to select the date</t>
   </si>
   <si>
-    <t>due date is clickable. date picker box is opening. user is able to select the date</t>
-  </si>
-  <si>
     <t>click on add row of hostel fee component section</t>
   </si>
   <si>
     <t>new row for hostel fee component should be added</t>
-  </si>
-  <si>
-    <t>new row for hostel fee component is added</t>
   </si>
   <si>
     <t>click on fee category dropdown , select the fee category</t>
@@ -250,37 +198,24 @@
 it should be a link field, it should linked with fee category screen</t>
   </si>
   <si>
-    <t>fee category dropdown is clickable. user is able to put fee category
-it is a link field, it should linked with fee category screen</t>
-  </si>
-  <si>
     <t>click on description text field, fill it</t>
   </si>
   <si>
     <t>description text field should be filled by user</t>
   </si>
   <si>
-    <t>description text field is filled by user</t>
-  </si>
-  <si>
     <t>click on amount text field, fill it</t>
   </si>
   <si>
     <t>Amount text field should be filled by user</t>
   </si>
   <si>
-    <t>Amount text field is filled by user</t>
-  </si>
-  <si>
     <t>After fill the mandatory &amp; required fields, click on save button</t>
   </si>
   <si>
     <t>Page should be saved successfully. New Student Hostel Admission should be created</t>
   </si>
   <si>
-    <t>Page is saved successfully. New Student Hostel Admission is created</t>
-  </si>
-  <si>
     <t>Roles And Permission</t>
   </si>
   <si>
@@ -288,9 +223,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>BUG ID</t>
   </si>
   <si>
     <r>
@@ -415,33 +347,6 @@
         <charset val="0"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">The user also have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read,Write,Create, Delete, submit, cancel &amp; amend</t>
-    </r>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Login as </t>
     </r>
     <r>
@@ -467,30 +372,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user also  have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read,Write,Create, Delete, submit, cancel &amp; amend</t>
-    </r>
-  </si>
-  <si>
     <t>TC2_Student_Medical_History</t>
   </si>
   <si>
@@ -512,25 +393,16 @@
     <t xml:space="preserve"> Student Medical History page should be open</t>
   </si>
   <si>
-    <t xml:space="preserve"> Student Medical History page is opening</t>
-  </si>
-  <si>
     <t>View the Student Medical History  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on  Student Medical History page</t>
   </si>
   <si>
-    <t xml:space="preserve"> saved data is showing on  Student Medical History page</t>
-  </si>
-  <si>
     <t>Click Add Student Medical History button</t>
   </si>
   <si>
     <t>Add  Student Medical History button should be clickable and new Student Medical History addition page should be open</t>
-  </si>
-  <si>
-    <t>Add  Student Medical History button is clickable and new Student Medical History addition page is opening</t>
   </si>
   <si>
     <t>click on Allotment Number dropdown, select the allotment</t>
@@ -540,26 +412,16 @@
 it should be a link field. it should be linked with room allotment screen</t>
   </si>
   <si>
-    <t>Allotment number dropdown is clickable. user is able to fill allotment number field.
-it is a link field. it is linked with room allotment screen</t>
-  </si>
-  <si>
     <t>Verify the page after put allotment number</t>
   </si>
   <si>
     <t>The student who is assigned as that allotment number, that student details like Student, Student name, Roll No, Hostel, Room Number, Room Type should be auto fetched</t>
   </si>
   <si>
-    <t>The student who is assigned as that allotment number, that student details like Student, Student name, Roll No, Hostel, Room Number, Room Type is auto fetched</t>
-  </si>
-  <si>
     <t>click on Registration Number textfield. put the Registration Number</t>
   </si>
   <si>
     <t xml:space="preserve">user should able to fill Registration Number </t>
-  </si>
-  <si>
-    <t xml:space="preserve">user is able to fill Registration Number </t>
   </si>
   <si>
     <t>view the Allergies section, click any Allergies checkboxs</t>
@@ -569,10 +431,6 @@
 user should able to click one or more Allergies checkboxs</t>
   </si>
   <si>
-    <t>Allergies section is showing different Allergies.
-user is able to click one or more Allergies checkboxs</t>
-  </si>
-  <si>
     <t>view the Past Medical History section, click any Past Medical History checkboxs</t>
   </si>
   <si>
@@ -580,17 +438,10 @@
 user should able to click one or more Past Medical History checkboxs</t>
   </si>
   <si>
-    <t>Past Medical History section is showing different disease
-user is able to click one or more Past Medical History checkboxs</t>
-  </si>
-  <si>
     <t>Go to the text area 'Have you ever had any serious illness not listed above? If yes please mention below' , enter data</t>
   </si>
   <si>
     <t>User should able to enter the data briefly</t>
-  </si>
-  <si>
-    <t>User is able to enter the data briefly</t>
   </si>
   <si>
     <t>Go to the Medical History Document section, attach the document</t>
@@ -601,11 +452,6 @@
 user should able to attach the document</t>
   </si>
   <si>
-    <t>Attachment is there
-attach button is clickable
-user is able to attach the document</t>
-  </si>
-  <si>
     <t>Go to the description text area, enter data</t>
   </si>
   <si>
@@ -617,15 +463,7 @@
 user should able to select the data</t>
   </si>
   <si>
-    <t>Vaccinated? dropdown is clickable. 
-Types of Vaccinated is showing
-user is able to select the data</t>
-  </si>
-  <si>
     <t>Page should be saved successfully. New Hostel Material should be created</t>
-  </si>
-  <si>
-    <t>Page is saved successfully. New Hostel Material is created</t>
   </si>
   <si>
     <r>
@@ -652,30 +490,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Read,Write,Create &amp; Delete </t>
-    </r>
-  </si>
-  <si>
     <t>TC3_Student_Leave_Process</t>
   </si>
   <si>
@@ -683,9 +497,6 @@
   </si>
   <si>
     <t>New Student Leave Process, Leave Approval Process, Parent Application</t>
-  </si>
-  <si>
-    <t>Actual Results (Student)</t>
   </si>
   <si>
     <t>Home &gt; Hostel &gt; Student Admission &amp; Essentials &gt; Student Leave Process</t>
@@ -736,30 +547,6 @@
 after select the document, that should be attached</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The user  have all the following accesses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Read,Write,Create &amp; Delete </t>
-    </r>
-  </si>
-  <si>
     <t>TC4_Material_Distribution</t>
   </si>
   <si>
@@ -773,9 +560,6 @@
     <t>New Material Distribution</t>
   </si>
   <si>
-    <t>Actual Results ( Hostel Warden )</t>
-  </si>
-  <si>
     <t>Home &gt; Hostel &gt; Student Admission &amp; Essentials &gt; Material Distribution</t>
   </si>
   <si>
@@ -785,25 +569,16 @@
     <t xml:space="preserve"> Material Distribution page should be open</t>
   </si>
   <si>
-    <t xml:space="preserve"> Material Distribution page is opening</t>
-  </si>
-  <si>
     <t>View the Material Distribution  page</t>
   </si>
   <si>
     <t xml:space="preserve"> saved data should be shown on  Material Distribution page</t>
   </si>
   <si>
-    <t xml:space="preserve"> saved data is showing on  Material Distribution page</t>
-  </si>
-  <si>
     <t>Click Add Material Distribution button</t>
   </si>
   <si>
     <t>Add  SMaterial Distribution button should be clickable and new Material Distribution  addition page should be open</t>
-  </si>
-  <si>
-    <t>Add  Material Distribution button is clickable and new Material Distribution  addition page is opening</t>
   </si>
   <si>
     <t>Click on add row button of material allotment section</t>
@@ -813,28 +588,18 @@
 new row should be added in material allotment table</t>
   </si>
   <si>
-    <t>add row button is clickable.
-new row is added in material allotment table</t>
-  </si>
-  <si>
     <t>Click on material text field, fill it</t>
   </si>
   <si>
     <t>user should able to fill material field like bed, matress, table, chair etc in material text field</t>
   </si>
   <si>
-    <t>user is able to fill material field like bed, matress, table, chair etc in material text field</t>
-  </si>
-  <si>
     <t>click on Mandatory materials checkbox, which material is mandatory</t>
   </si>
   <si>
     <t>Checkbox should be clickable</t>
   </si>
   <si>
-    <t>Checkbox is clickable</t>
-  </si>
-  <si>
     <t>click on Material Applicability Check checkbox</t>
   </si>
   <si>
@@ -844,19 +609,10 @@
     <t>user should able to fill data in notes text area</t>
   </si>
   <si>
-    <t>user is able to fill data in notes text area</t>
-  </si>
-  <si>
     <t>TC5_Material_Distribution_Master</t>
   </si>
   <si>
-    <t>url: erp.worldskillcenter.org</t>
-  </si>
-  <si>
     <t>New Material Distribution Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Results </t>
   </si>
   <si>
     <t>Home &gt; Hostel &gt; Student Admission &amp; Essentials &gt; Material Distribution Master</t>
@@ -885,10 +641,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1066,7 +822,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1076,12 +832,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,7 +1028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1290,6 +1040,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1433,16 +1220,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1451,7 +1238,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1463,115 +1250,115 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1594,28 +1381,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,25 +1418,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1976,24 +1763,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2008,9 +1795,8 @@
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2023,57 +1809,52 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2084,18 +1865,16 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2114,9 +1893,8 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>20</v>
@@ -2125,9 +1903,8 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A11" s="8">
         <v>1</v>
       </c>
@@ -2137,453 +1914,333 @@
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
       <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A21" s="8">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="8">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="24" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A24" s="8">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A25" s="8">
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="8">
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A27" s="8">
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:6">
       <c r="A28" s="8">
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:6">
       <c r="A29" s="8">
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:6">
       <c r="A30" s="8">
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
     </row>
     <row r="31" s="17" customFormat="1" spans="1:1">
-      <c r="A31" s="20"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="32" s="17" customFormat="1" spans="1:1">
-      <c r="A32" s="20"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:7">
-      <c r="A33" s="20"/>
-      <c r="B33" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="11"/>
+      <c r="A32" s="23"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="23"/>
+      <c r="B33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="12"/>
       <c r="D33" s="12" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A34" s="20"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="23"/>
       <c r="B34" s="14" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A35" s="20"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A35" s="23"/>
       <c r="B35" s="14" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="8">
-        <v>185</v>
-      </c>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A36" s="20"/>
+        <v>67</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A36" s="23"/>
       <c r="B36" s="14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="8">
-        <v>186</v>
-      </c>
-      <c r="G36" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:1">
       <c r="A37" s="16"/>
@@ -2593,7 +2250,7 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B33:C33"/>
   </mergeCells>
@@ -2605,13 +2262,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
@@ -2622,24 +2279,23 @@
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2652,79 +2308,72 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2743,384 +2392,286 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A21" s="8">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="22" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A22" s="8">
         <v>12</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="24" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A24" s="8">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
       <c r="A25" s="8">
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
       <c r="A27" s="8"/>
-      <c r="B27" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="11"/>
+      <c r="B27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A28" s="8"/>
       <c r="B28" s="14" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A29" s="8"/>
       <c r="B29" s="14" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="8">
-        <v>187</v>
-      </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A30" s="8"/>
       <c r="B30" s="14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="8">
-        <v>188</v>
-      </c>
-      <c r="G30" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:1">
       <c r="A31" s="16"/>
@@ -3130,7 +2681,7 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B27:C27"/>
   </mergeCells>
@@ -3142,13 +2693,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F27"/>
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
@@ -3159,24 +2710,23 @@
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3189,79 +2739,72 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -3272,7 +2815,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -3280,327 +2823,244 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="60" spans="1:7">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="19" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A21" s="8">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="8">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
       <c r="A24" s="8"/>
-      <c r="B24" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="11"/>
+      <c r="B24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="14" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="14" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="8">
-        <v>198</v>
-      </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="8">
-        <v>199</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:1">
       <c r="A28" s="16"/>
@@ -3610,7 +3070,7 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B24:C24"/>
   </mergeCells>
@@ -3622,10 +3082,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3633,34 +3093,29 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.4285714285714" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.1428571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.2857142857143" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="27.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="D1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3673,93 +3128,72 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="30" spans="1:9">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:9">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -3775,433 +3209,263 @@
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:9">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" spans="1:9">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="8">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:9">
-      <c r="A22" s="18">
+        <v>132</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
+      <c r="A22" s="21">
         <v>12</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="30" spans="1:7">
+      <c r="B22" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:16">
       <c r="A23" s="8">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" s="17" customFormat="1" spans="1:1">
-      <c r="A24" s="20"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:9">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>84</v>
+      <c r="A24" s="23"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
+      <c r="A25" s="24"/>
+      <c r="B25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A26" s="8"/>
       <c r="B26" s="14" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:9">
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A27" s="8"/>
       <c r="B27" s="14" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="25">
-        <v>209</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A28" s="8"/>
       <c r="B28" s="14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:1">
       <c r="A29" s="16"/>
@@ -4211,7 +3475,7 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B25:C25"/>
   </mergeCells>
@@ -4223,13 +3487,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
@@ -4240,12 +3504,12 @@
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="52" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -4253,9 +3517,8 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4268,77 +3531,70 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -4349,7 +3605,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -4357,231 +3613,216 @@
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A11" s="8">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A13" s="8">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
       <c r="A15" s="8">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A16" s="8">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:6">
       <c r="A17" s="8">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A18" s="8">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
       <c r="A20" s="8">
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="11" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="12" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
+        <v>63</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="14" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A24" s="8"/>
       <c r="B24" s="14" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A25" s="8"/>
       <c r="B25" s="14" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:1">
       <c r="A26" s="16"/>
@@ -4591,7 +3832,7 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B22:C22"/>
   </mergeCells>
